--- a/data/replications/Alesina2013/tradPloughUse.xlsx
+++ b/data/replications/Alesina2013/tradPloughUse.xlsx
@@ -1,14 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_FD6AC098F913E194E3A4AE22FD74D56F3754D9D1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5126D3C-CE3A-4815-987B-8FE95F18FEBD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$176</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1095,7 +1099,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1406,10 +1410,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -4613,6 +4619,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G176" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>